--- a/results/data/DERAIN.xlsx
+++ b/results/data/DERAIN.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunjingyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunjingyang/files/github/efficientderain/results/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC8699-12BE-254E-AE95-98A74E0B962B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE6070-4A6A-DE4C-9A92-C4C507FAAA5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -685,8 +685,8 @@
   </sheetPr>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
